--- a/data/223/COMEX/General Exports and Imports_historical.xlsx
+++ b/data/223/COMEX/General Exports and Imports_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AEJ2"/>
+  <dimension ref="A1:AEM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4442,6 +4442,21 @@
           <t>2021-11</t>
         </is>
       </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6862,37 +6877,46 @@
         <v>18451.708927</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>14947.524864</v>
+        <v>14947.626003</v>
       </c>
       <c r="AEA2" t="n">
-        <v>16373.08865</v>
+        <v>16375.29087</v>
       </c>
       <c r="AEB2" t="n">
-        <v>24325.319824</v>
+        <v>24335.759852</v>
       </c>
       <c r="AEC2" t="n">
-        <v>26009.471683</v>
+        <v>26059.431856</v>
       </c>
       <c r="AED2" t="n">
-        <v>26182.999871</v>
+        <v>26200.662606</v>
       </c>
       <c r="AEE2" t="n">
-        <v>28135.012454</v>
+        <v>28257.895138</v>
       </c>
       <c r="AEF2" t="n">
-        <v>25526.912005</v>
+        <v>25508.595503</v>
       </c>
       <c r="AEG2" t="n">
-        <v>27274.909622</v>
+        <v>27216.3759</v>
       </c>
       <c r="AEH2" t="n">
-        <v>24396.21821</v>
+        <v>24376.12951</v>
       </c>
       <c r="AEI2" t="n">
-        <v>22565.733144</v>
+        <v>22602.637234</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>20291.164769</v>
+        <v>20501.76621</v>
+      </c>
+      <c r="AEK2" t="n">
+        <v>24432.406778</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>19730.909095</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>22912.399583</v>
       </c>
     </row>
   </sheetData>
